--- a/electrical/bom.xlsx
+++ b/electrical/bom.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC023521-465C-4A35-ACFF-D3270C5EBD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B41DEE-6975-44B9-AC8F-F7915943A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dif-pressure-meter" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -324,7 +324,10 @@
     <t>SPH-002T-P0.5S</t>
   </si>
   <si>
-    <t>BOM: Differential Pressure Meter v1.0</t>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>BOM: Differential Pressure Meter v1.1</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1230,8 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1246,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1736,8 +1739,8 @@
       <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D32" s="3">
-        <v>2.2000000000000002</v>
+      <c r="D32" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>51</v>

--- a/electrical/bom.xlsx
+++ b/electrical/bom.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B41DEE-6975-44B9-AC8F-F7915943A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B967D4A-DFE3-4078-B9B9-C5B010C03AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -75,9 +75,6 @@
     <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
   </si>
   <si>
-    <t>D2, D3</t>
-  </si>
-  <si>
     <t>1N5819HW-7-F</t>
   </si>
   <si>
@@ -328,13 +325,37 @@
   </si>
   <si>
     <t>BOM: Differential Pressure Meter v1.1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>1N4148W-7-F</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005001771616075.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32976958134.html</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>SDP810-500Pa</t>
+  </si>
+  <si>
+    <t>https://www.sensirion.com/products/catalog/SDP810-500Pa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +520,35 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -816,7 +866,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -859,8 +909,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -870,8 +921,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -905,6 +960,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1228,10 +1284,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,19 +1297,21 @@
     <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1286,9 +1347,11 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1303,9 +1366,11 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" ref="A7:A45" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1320,9 +1385,11 @@
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1337,595 +1404,717 @@
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="2">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
         <v>33</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="E29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>510</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
-      <c r="D31" s="3">
-        <v>510</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
       </c>
-      <c r="D33" s="3">
-        <v>100</v>
+      <c r="D33" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="3">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F36" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="F41" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
         <v>2</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>96</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F36" r:id="rId1" xr:uid="{9C3E358B-3511-405A-A4A0-CFD26338528B}"/>
+    <hyperlink ref="F41" r:id="rId2" xr:uid="{F122CB5D-3EBE-49C4-9E00-90E1BB53AFCD}"/>
+    <hyperlink ref="F45" r:id="rId3" xr:uid="{6C8F4577-EE8F-4662-B612-D75D20AD69BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>